--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41660.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41660.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>155.91</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.23</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41660.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.84</v>
+        <v>2.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41660.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.16</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>142.39</v>
+        <v>14.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41660.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.31</v>
+        <v>2.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>51</v>
+        <v>5.1</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>41.95</v>
+        <v>4.2</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>69.31999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.25</v>
+        <v>2.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.26</v>
+        <v>2.03</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.71</v>
+        <v>2.17</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>26.21</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>271.8</v>
+        <v>27.18</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>51.56</v>
+        <v>5.16</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>34.44</v>
+        <v>3.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.38</v>
+        <v>3.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>62.79</v>
+        <v>6.28</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41660.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>36.37</v>
+        <v>3.64</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>29.9</v>
+        <v>2.99</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.07</v>
+        <v>5.31</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>191.72</v>
+        <v>19.17</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>36.88</v>
+        <v>3.69</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.57</v>
+        <v>2.46</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.69</v>
+        <v>2.57</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.12</v>
+        <v>4.81</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41660.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Y8" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.63</v>
-      </c>
       <c r="Z8" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41660.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25.84</v>
+        <v>2.58</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>96.70999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>23.08</v>
+        <v>2.31</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41660.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.21</v>
+        <v>1.82</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.67</v>
+        <v>3.07</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P10" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
         <v>11.39</v>
       </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>113.91</v>
-      </c>
       <c r="U10" s="4" t="n">
-        <v>22.43</v>
+        <v>2.24</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>27.68</v>
+        <v>2.77</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -462,12 +462,12 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41660.34027777778</v>
+        <v>44909.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.97</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.22</v>
+        <v>3.38</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.55</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.24</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.26</v>
+        <v>1.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>1.33</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.69</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.15</v>
+        <v>4.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.79</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41660.34722222222</v>
+        <v>44909.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.34</v>
+        <v>2.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.99</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.41</v>
+        <v>4.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.47</v>
+        <v>7.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.62</v>
+        <v>2.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>2.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.27</v>
+        <v>2.14</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.51</v>
+        <v>2.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.87</v>
+        <v>1.57</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.59</v>
+        <v>27.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.07</v>
+        <v>5.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.96</v>
+        <v>1.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.96</v>
+        <v>3.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="AC3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.55</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>1.2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41660.35416666666</v>
+        <v>44909.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.63</v>
+        <v>5.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.32</v>
+        <v>7.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.32</v>
+        <v>2.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.26</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.23</v>
+        <v>6.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41660.36111111111</v>
+        <v>44909.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.52</v>
+        <v>4.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>0.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41660.36805555555</v>
+        <v>44909.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.33</v>
+        <v>6.25</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.77</v>
+        <v>4.42</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5.1</v>
+        <v>13.53</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.2</v>
+        <v>10.9</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.85</v>
+        <v>4.92</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.93</v>
+        <v>22.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.82</v>
+        <v>7.56</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.28</v>
+        <v>3.29</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.93</v>
+        <v>4.77</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.03</v>
+        <v>5.44</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.17</v>
+        <v>5.68</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>27.18</v>
+        <v>67.09</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.16</v>
+        <v>13.82</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.68</v>
+        <v>4.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.44</v>
+        <v>9.15</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.83</v>
+        <v>4.75</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.88</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.44</v>
+        <v>10.42</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.52</v>
+        <v>3.98</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.33</v>
+        <v>3.62</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.56</v>
+        <v>4.24</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.15</v>
+        <v>5.65</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.28</v>
+        <v>20.54</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.96</v>
+        <v>2.48</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41660.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41660.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41660.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41660.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41660.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>31.56</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.89</v>
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44909.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.38</v>
+        <v>33.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4.95</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.73</v>
+        <v>227.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.29</v>
+        <v>42.87</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.83</v>
+        <v>28.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44909.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.7</v>
+        <v>16.98</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.09</v>
+        <v>50.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.16</v>
+        <v>41.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.06</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.4</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.31</v>
+        <v>273.1</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.15</v>
+        <v>51.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.44</v>
+        <v>34.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.45</v>
+        <v>34.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.41</v>
+        <v>64.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44909.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.22</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.11</v>
+        <v>51.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.18</v>
+        <v>41.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.24</v>
+        <v>72.42</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.55</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>273.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.5</v>
+        <v>35.02</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.57</v>
+        <v>65.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44909.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.28</v>
+        <v>42.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.72</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.89</v>
+        <v>38.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44909.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44909.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.98</v>
+        <v>16.975</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.92</v>
+        <v>50.924</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>41.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.52</v>
+        <v>18.525</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.56999999999999</v>
+        <v>70.571</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.47</v>
+        <v>12.473</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.54</v>
+        <v>18.537</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>20.4</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.4</v>
+        <v>21.396</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.92</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.09</v>
+        <v>26.089</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.66</v>
+        <v>15.659</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.621</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.1</v>
+        <v>273.096</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.52</v>
+        <v>51.521</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.44</v>
+        <v>34.438</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.99</v>
+        <v>17.986</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.96</v>
+        <v>2.962</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.46</v>
+        <v>34.462</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.79</v>
+        <v>15.789</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.23</v>
+        <v>21.231</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.13</v>
+        <v>64.127</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.52</v>
+        <v>9.522</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
@@ -863,10 +863,10 @@
         <v>44909.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.22</v>
+        <v>17.223</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.56</v>
@@ -875,91 +875,91 @@
         <v>51.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.82</v>
+        <v>41.817</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>72.42</v>
+        <v>72.42100000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.592</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.68</v>
+        <v>18.677</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.5</v>
+        <v>20.498</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>21.55</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.17</v>
+        <v>26.171</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.58</v>
+        <v>15.579</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.114</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.026</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.1</v>
+        <v>273.098</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.54</v>
+        <v>51.539</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.57</v>
+        <v>34.573</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.11</v>
+        <v>18.107</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.02</v>
+        <v>35.023</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.37</v>
+        <v>13.373</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.71</v>
+        <v>15.708</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.41</v>
+        <v>21.414</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.72</v>
+        <v>65.723</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44909.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>20.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44909.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.13</v>
+        <v>28.133</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.92</v>
+        <v>22.925</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>42.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.3</v>
+        <v>11.304</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.85</v>
+        <v>11.854</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.263</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.399</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.67</v>
+        <v>8.669</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.2</v>
+        <v>147.199</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.49</v>
+        <v>28.488</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.03</v>
+        <v>19.029</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.24</v>
+        <v>20.245</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>7.413</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.79</v>
+        <v>11.788</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.94</v>
+        <v>38.941</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.23</v>
+        <v>5.229</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44909.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_228.xlsx
+++ b/DATA_goal/Junction_Flooding_228.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44909.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.971</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.401999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.133</v>
+        <v>28.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.925</v>
+        <v>22.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.208</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>42.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.707</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.907</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.174</v>
+        <v>10.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.304</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.854</v>
+        <v>11.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.263</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.399</v>
+        <v>14.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.669</v>
+        <v>8.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.611</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.199</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.488</v>
+        <v>28.49</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.029</v>
+        <v>19.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.946</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.628</v>
+        <v>1.63</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.245</v>
+        <v>20.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.413</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.788</v>
+        <v>11.79</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.941</v>
+        <v>38.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.229</v>
+        <v>5.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.715</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44909.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>20.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
